--- a/results/manual_perceptron_wyniki_classification_our_train_val_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_our_train_val_test.xlsx
@@ -558,52 +558,52 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3387764474016978</v>
+        <v>0.3339389229500062</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8492845759423504</v>
+        <v>0.8493798503325942</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8495311320254575</v>
+        <v>0.8495869337647444</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8495300039787945</v>
+        <v>0.8493060170057505</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8494564923943325</v>
+        <v>0.8493744405974156</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3392765291379968</v>
+        <v>0.3342893786473147</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8472716488730724</v>
+        <v>0.8480130486358244</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8472760469436001</v>
+        <v>0.8480133240988095</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8472716488730723</v>
+        <v>0.8480130486358244</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8472738479026288</v>
+        <v>0.8480131863672946</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3393370083689368</v>
+        <v>0.3336329629280596</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8497701319887291</v>
+        <v>0.8505116417025063</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8497704319521422</v>
+        <v>0.8505159727207465</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8497700627042533</v>
+        <v>0.8505119023363396</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8497702473281576</v>
+        <v>0.850513937523673</v>
       </c>
     </row>
     <row r="3">
@@ -623,52 +623,52 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3217233676357906</v>
+        <v>0.3199814515878982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8545535384331115</v>
+        <v>0.855347491685144</v>
       </c>
       <c r="I3" t="n">
-        <v>0.855017738785208</v>
+        <v>0.8556946383928599</v>
       </c>
       <c r="J3" t="n">
-        <v>0.854719403224362</v>
+        <v>0.8553945521022949</v>
       </c>
       <c r="K3" t="n">
-        <v>0.854792445210475</v>
+        <v>0.8554748505735946</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3218491236103684</v>
+        <v>0.3211717859393027</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8514234875444839</v>
+        <v>0.8503855278766311</v>
       </c>
       <c r="N3" t="n">
-        <v>0.851433501670176</v>
+        <v>0.8504721103665469</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8514234875444839</v>
+        <v>0.850385527876631</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8514284945778846</v>
+        <v>0.8504288169178397</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3211145915285283</v>
+        <v>0.3187547814464965</v>
       </c>
       <c r="R3" t="n">
         <v>0.8574818330120124</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8575080061938027</v>
+        <v>0.8575631648906917</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8574824676880785</v>
+        <v>0.8574829515443461</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8574952367507894</v>
+        <v>0.8575230563417149</v>
       </c>
     </row>
     <row r="4">
@@ -688,52 +688,52 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3165055179483843</v>
+        <v>0.3168563969370088</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8568718819290465</v>
+        <v>0.8570277854767183</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8571725813092894</v>
+        <v>0.8576089680004757</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8569603461376648</v>
+        <v>0.8572122966913349</v>
       </c>
       <c r="K4" t="n">
-        <v>0.856991167071413</v>
+        <v>0.8573307804656838</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3175678649470771</v>
+        <v>0.3168584881440147</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8511269276393831</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8511418745987211</v>
+        <v>0.854404172420162</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8511269276393831</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8511344010534305</v>
+        <v>0.8543966294412356</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3145975382500694</v>
+        <v>0.3151566571588709</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8585199466113006</v>
+        <v>0.855998813584458</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8585410177856381</v>
+        <v>0.8560248807868944</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8585205153297981</v>
+        <v>0.8559994482279072</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8585307664353139</v>
+        <v>0.8560121643184972</v>
       </c>
     </row>
     <row r="5">
@@ -753,52 +753,52 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3175838355425142</v>
+        <v>0.3158014271569524</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8555033952328159</v>
+        <v>0.8578534968588322</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8559994191690306</v>
+        <v>0.8581013110369915</v>
       </c>
       <c r="J5" t="n">
-        <v>0.855761347714905</v>
+        <v>0.8580586710542127</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8558044208983081</v>
+        <v>0.8580070129412656</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3182440029278825</v>
+        <v>0.3152527597215918</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8493475682087782</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8493652663263971</v>
+        <v>0.8544070401188832</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8493475682087782</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8493564171753933</v>
+        <v>0.8543980632628733</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3157994817179956</v>
+        <v>0.3143450464291713</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8555539077561916</v>
+        <v>0.8586682485540561</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8556255409267035</v>
+        <v>0.8586685007468104</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8555549602657233</v>
+        <v>0.8586683114260809</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8555902491406013</v>
+        <v>0.8586684060864352</v>
       </c>
     </row>
     <row r="6">
@@ -818,52 +818,52 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3341806628922007</v>
+        <v>0.3332996144886506</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8496974316334073</v>
+        <v>0.8506819336659276</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8501330455149911</v>
+        <v>0.8510874446203669</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8497657619706112</v>
+        <v>0.8508151850106613</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8498775486484136</v>
+        <v>0.8508777374750075</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3336547772476113</v>
+        <v>0.3336807168977159</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8491992882562278</v>
+        <v>0.8487544483985765</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8492044785432817</v>
+        <v>0.8487575156434087</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8491992882562278</v>
+        <v>0.8487544483985765</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8492018833918241</v>
+        <v>0.8487559820182214</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.334231177365606</v>
+        <v>0.3331244938388384</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8516980572445499</v>
+        <v>0.8530327747293489</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8516981598503037</v>
+        <v>0.8530327934904969</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8516980979698094</v>
+        <v>0.8530327934904969</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8516981289100554</v>
+        <v>0.8530327934904969</v>
       </c>
     </row>
     <row r="7">
@@ -886,49 +886,49 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3175882671667755</v>
+        <v>0.3176125132597036</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8571548179970436</v>
+        <v>0.8572183342572062</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8575400366620175</v>
+        <v>0.8574992793134515</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8571939893711937</v>
+        <v>0.8573111523788857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8572942264934291</v>
+        <v>0.8573333904676169</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3170891395873958</v>
+        <v>0.3180957906140651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8527580071174378</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8541244186128332</v>
+        <v>0.8527806252696322</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8527580071174377</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8541084723539057</v>
+        <v>0.8527693160435585</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3158185643918398</v>
+        <v>0.3172229675657541</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8571852291265015</v>
+        <v>0.8567403232982352</v>
       </c>
       <c r="S7" t="n">
-        <v>0.857260225998842</v>
+        <v>0.8568183270063554</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8571863036653784</v>
+        <v>0.8567414198207937</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8572232632384438</v>
+        <v>0.8567798716877184</v>
       </c>
     </row>
     <row r="8">
@@ -951,49 +951,49 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3143677996098305</v>
+        <v>0.3145741750218802</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8584569013303769</v>
+        <v>0.8579516583518108</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8586145891744842</v>
+        <v>0.8581769415182972</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8584947653926795</v>
+        <v>0.8580276946510261</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8584803015503156</v>
+        <v>0.8580271660913835</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3141917026772015</v>
+        <v>0.3146218819039945</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8546856465005931</v>
+        <v>0.8517200474495848</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8547007449493839</v>
+        <v>0.851764720369709</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8546856465005931</v>
+        <v>0.8517200474495848</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8546931956583086</v>
+        <v>0.8517423833238859</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3126323548484036</v>
+        <v>0.3133595139021438</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8577784368975233</v>
+        <v>0.8571852291265015</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8578417553069801</v>
+        <v>0.857260225998842</v>
       </c>
       <c r="T8" t="n">
-        <v>0.85777942347558</v>
+        <v>0.8571863036653784</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8578105882589622</v>
+        <v>0.8572232632384438</v>
       </c>
     </row>
     <row r="9">
@@ -1013,52 +1013,52 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.31260278808123</v>
+        <v>0.312104350923834</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8585521757206208</v>
+        <v>0.8588697570214339</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8589210472969993</v>
+        <v>0.8593572185964014</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8584899094477751</v>
+        <v>0.8589892486878795</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8586306044459032</v>
+        <v>0.8590957777577309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3128945540889249</v>
+        <v>0.3121782200753383</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8543890865954923</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8543890865954923</v>
+        <v>0.8524617261963655</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8543890865954923</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8543890865954923</v>
+        <v>0.8524615867043283</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3105957619535848</v>
+        <v>0.3111775576410398</v>
       </c>
       <c r="R9" t="n">
         <v>0.8601512679816106</v>
       </c>
       <c r="S9" t="n">
-        <v>0.860181415196547</v>
+        <v>0.8601650345151828</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8601519467033201</v>
+        <v>0.8601517267686529</v>
       </c>
       <c r="U9" t="n">
-        <v>0.860166680697543</v>
+        <v>0.8601583805904459</v>
       </c>
     </row>
     <row r="10">
@@ -1078,52 +1078,52 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3301273065023865</v>
+        <v>0.3304404428049542</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8505549011456024</v>
+        <v>0.8509995149667406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8509007045260971</v>
+        <v>0.8512970978548103</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8507611630134353</v>
+        <v>0.8510595543546335</v>
       </c>
       <c r="K10" t="n">
-        <v>0.850759097944491</v>
+        <v>0.8511049594020822</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3294319802606471</v>
+        <v>0.3302567428026809</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8477164887307236</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8500892450776689</v>
+        <v>0.8477172532547126</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8477164887307236</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8500891065245769</v>
+        <v>0.8477168709925458</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3305057496926288</v>
+        <v>0.3302739670935689</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8539225863858817</v>
+        <v>0.8519946611300608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.85393364987283</v>
+        <v>0.8519965679465988</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8539230010490004</v>
+        <v>0.851994833822644</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8539283254277165</v>
+        <v>0.8519957008837391</v>
       </c>
     </row>
     <row r="11">
@@ -1146,49 +1146,49 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3172871559553752</v>
+        <v>0.3172203523676486</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8571548179970436</v>
+        <v>0.8571230598669622</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8574821682084323</v>
+        <v>0.8574007468529697</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8572096040652436</v>
+        <v>0.8571963663595179</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8572674695495871</v>
+        <v>0.8572265339914699</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3176647591757858</v>
+        <v>0.3167478003957203</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8518683274021353</v>
+        <v>0.8523131672597865</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8519203553826676</v>
+        <v>0.8523731647450909</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8518683274021353</v>
+        <v>0.8523131672597866</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8518943405980217</v>
+        <v>0.8523431649466146</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3171736806518764</v>
+        <v>0.3169408612752777</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8546640960996589</v>
+        <v>0.855998813584458</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8546789923063727</v>
+        <v>0.8560563266517123</v>
       </c>
       <c r="T11" t="n">
-        <v>0.854664576759486</v>
+        <v>0.8559997561364412</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8546717844721434</v>
+        <v>0.8560280404594627</v>
       </c>
     </row>
     <row r="12">
@@ -1208,52 +1208,52 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3138860129456634</v>
+        <v>0.3132408627041582</v>
       </c>
       <c r="H12" t="n">
-        <v>0.858361626940133</v>
+        <v>0.858618579083518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8587455769661135</v>
+        <v>0.8590164643965273</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8584018796874066</v>
+        <v>0.8585207010011594</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8584955074304281</v>
+        <v>0.8586910354827686</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3141759560086072</v>
+        <v>0.3128779543642655</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8539823833935298</v>
+        <v>0.852037536935865</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8539633146399047</v>
+        <v>0.8520270720167443</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3125209327601102</v>
+        <v>0.3120337028004103</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8577784368975233</v>
+        <v>0.8604478718671215</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8578211774394493</v>
+        <v>0.860523544039153</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8577792475278463</v>
+        <v>0.8604489464777552</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8578002119712566</v>
+        <v>0.8604862436416948</v>
       </c>
     </row>
     <row r="13">
@@ -1273,52 +1273,52 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3104795269994313</v>
+        <v>0.3096878244500365</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8596954684035476</v>
+        <v>0.859949533444198</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8600708033705353</v>
+        <v>0.860221724931681</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8597500715521685</v>
+        <v>0.8600428500956262</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8598329823656966</v>
+        <v>0.8600541022057683</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3119475891626431</v>
+        <v>0.3122889769820308</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8551304863582444</v>
+        <v>0.8540925266903915</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8551307674548992</v>
+        <v>0.8541075998909401</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8551304863582443</v>
+        <v>0.8540925266903915</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8551306269065487</v>
+        <v>0.8541000632241627</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3096137387811623</v>
+        <v>0.309280821128424</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8601512679816106</v>
+        <v>0.860596173809877</v>
       </c>
       <c r="S13" t="n">
-        <v>0.860181415196547</v>
+        <v>0.860600622158411</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8601519467033201</v>
+        <v>0.860596434665504</v>
       </c>
       <c r="U13" t="n">
-        <v>0.860166680697543</v>
+        <v>0.8605985284068636</v>
       </c>
     </row>
     <row r="14">
@@ -1338,52 +1338,52 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.329475730007844</v>
+        <v>0.3282887137853623</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8519522588691796</v>
+        <v>0.8525556633407243</v>
       </c>
       <c r="I14" t="n">
-        <v>0.852249667234232</v>
+        <v>0.8528275386659704</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8520797908175253</v>
+        <v>0.852572371714616</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8520938898799882</v>
+        <v>0.8526273349906922</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3299427804294753</v>
+        <v>0.3286782918909959</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8499406880189798</v>
+        <v>0.8503855278766311</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8499485669818316</v>
+        <v>0.850385805217506</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8499406880189798</v>
+        <v>0.850385527876631</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8499446274821464</v>
+        <v>0.8503856665470458</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3295823727216878</v>
+        <v>0.327752875956033</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8539225863858817</v>
+        <v>0.8545157941569035</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8539226051665997</v>
+        <v>0.8545246482280759</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8539226051665997</v>
+        <v>0.8545161648461355</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8539226051665997</v>
+        <v>0.8545204065160507</v>
       </c>
     </row>
     <row r="15">
@@ -1403,52 +1403,52 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3161515682585972</v>
+        <v>0.3154153053710863</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8573453667775314</v>
+        <v>0.8584251432002956</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8577132095610429</v>
+        <v>0.8588294884310683</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8574373872274508</v>
+        <v>0.8584645932865912</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8575009952654902</v>
+        <v>0.8585696181169594</v>
       </c>
       <c r="L15" t="n">
-        <v>0.316446424490224</v>
+        <v>0.3157743400518863</v>
       </c>
       <c r="M15" t="n">
-        <v>0.853202846975089</v>
+        <v>0.8523131672597865</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8533073751959617</v>
+        <v>0.8524174321853925</v>
       </c>
       <c r="O15" t="n">
-        <v>0.853202846975089</v>
+        <v>0.8523131672597866</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8532551078842117</v>
+        <v>0.852365296534058</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3152597266875594</v>
+        <v>0.3148855755638922</v>
       </c>
       <c r="R15" t="n">
-        <v>0.857333531069257</v>
+        <v>0.8568886252409906</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8573834547011416</v>
+        <v>0.8569635607224502</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8573344076701951</v>
+        <v>0.8568896997733442</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8573589304842085</v>
+        <v>0.8569266286563257</v>
       </c>
     </row>
     <row r="16">
@@ -1468,52 +1468,52 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3119248549580879</v>
+        <v>0.312469091645252</v>
       </c>
       <c r="H16" t="n">
-        <v>0.859314370842572</v>
+        <v>0.8591555801921655</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8596155060831771</v>
+        <v>0.8595516575988211</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8594213516985186</v>
+        <v>0.859249138152833</v>
       </c>
       <c r="K16" t="n">
-        <v>0.859441229388012</v>
+        <v>0.8593230392478239</v>
       </c>
       <c r="L16" t="n">
-        <v>0.313049839933906</v>
+        <v>0.3137420870129319</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8529062870699882</v>
       </c>
       <c r="N16" t="n">
-        <v>0.854116943428089</v>
+        <v>0.852951110657634</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8540925266903914</v>
+        <v>0.8529062870699882</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8541047348847367</v>
+        <v>0.8529286982749125</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3114084333049756</v>
+        <v>0.3120821917744681</v>
       </c>
       <c r="R16" t="n">
-        <v>0.860299569924366</v>
+        <v>0.8585199466113006</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8603662033646982</v>
+        <v>0.858625522342799</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8603005785513378</v>
+        <v>0.8585212191207329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8603333897065799</v>
+        <v>0.8585733675639637</v>
       </c>
     </row>
     <row r="17">
@@ -1533,52 +1533,52 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3097455342686177</v>
+        <v>0.3087344178004269</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8602988728750923</v>
+        <v>0.8603306310051737</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8605556325170036</v>
+        <v>0.8607385999084465</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8602136822983419</v>
+        <v>0.8602105734250989</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8603092810087153</v>
+        <v>0.8603984597173359</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3115603946331147</v>
+        <v>0.309494044829269</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8542408066429419</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8542545463948237</v>
+        <v>0.8535073659680876</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8542408066429419</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8542476764636351</v>
+        <v>0.8535033864055838</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3107488412633395</v>
+        <v>0.3083653476700268</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8614859854664096</v>
+        <v>0.8629690048939641</v>
       </c>
       <c r="S17" t="n">
-        <v>0.861492078266324</v>
+        <v>0.8629974445154742</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8614862903285401</v>
+        <v>0.8629696616841788</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8614891842877105</v>
+        <v>0.862983552876217</v>
       </c>
     </row>
     <row r="18">
@@ -1598,52 +1598,52 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3298789829780737</v>
+        <v>0.3348438810707279</v>
       </c>
       <c r="H18" t="n">
-        <v>0.851253580007391</v>
+        <v>0.8479507344789358</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8514417710494023</v>
+        <v>0.8483405147111585</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8512962224333414</v>
+        <v>0.8481589291494028</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8513019237543665</v>
+        <v>0.8481744540938634</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3299550410907848</v>
+        <v>0.3350657471546242</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8491992882562278</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8500897377118876</v>
+        <v>0.8492103753879829</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8491992882562278</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8500893528415348</v>
+        <v>0.8492048317859172</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3296497636286047</v>
+        <v>0.3342752422155976</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8554056058134362</v>
+        <v>0.8536259825003708</v>
       </c>
       <c r="S18" t="n">
-        <v>0.855424913332369</v>
+        <v>0.8536296433276191</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8554061524699719</v>
+        <v>0.8536262212092325</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8554155327983053</v>
+        <v>0.8536279322649961</v>
       </c>
     </row>
     <row r="19">
@@ -1666,49 +1666,49 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3188326187257089</v>
+        <v>0.3193991265735429</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8568401237989652</v>
+        <v>0.8558873798965262</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8571567932958339</v>
+        <v>0.8564771554855298</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8569655560031033</v>
+        <v>0.8561579940970124</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8569817700613328</v>
+        <v>0.856240492679275</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3200524043123703</v>
+        <v>0.3182646891467125</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8533511269276394</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8501114149901646</v>
+        <v>0.8533511580040885</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8533511269276394</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8501001913326682</v>
+        <v>0.8533511424658635</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3182198952939619</v>
+        <v>0.3158390741168243</v>
       </c>
       <c r="R19" t="n">
-        <v>0.857333531069257</v>
+        <v>0.8592614563250779</v>
       </c>
       <c r="S19" t="n">
-        <v>0.857388592811974</v>
+        <v>0.8592877566820925</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8573344516571285</v>
+        <v>0.8592620910402839</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8573615213798172</v>
+        <v>0.8592749236695367</v>
       </c>
     </row>
     <row r="20">
@@ -1731,49 +1731,49 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3142111427822526</v>
+        <v>0.3165040678860735</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8585204175905395</v>
+        <v>0.857348253880266</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8589641324725928</v>
+        <v>0.8578693155942047</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8585487800551707</v>
+        <v>0.8575299806576724</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8586775274467198</v>
+        <v>0.8576234397885584</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3135460773089034</v>
+        <v>0.3174852413500799</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8512752075919335</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8540956408828486</v>
+        <v>0.8514310126847909</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8540925266903914</v>
+        <v>0.8512752075919335</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8540940837837813</v>
+        <v>0.8513531030099373</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3115782012897081</v>
+        <v>0.3147626595420044</v>
       </c>
       <c r="R20" t="n">
-        <v>0.860299569924366</v>
+        <v>0.8576301349547679</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8603662033646982</v>
+        <v>0.8576333727518721</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8603005785513378</v>
+        <v>0.8576299118888939</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8603333897065799</v>
+        <v>0.8576316423168916</v>
       </c>
     </row>
     <row r="21">
@@ -1793,52 +1793,52 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3151959378477789</v>
+        <v>0.3153025755020579</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8569353981892091</v>
+        <v>0.8578217387287509</v>
       </c>
       <c r="I21" t="n">
-        <v>0.857367241849232</v>
+        <v>0.8583383385122256</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8571141310315832</v>
+        <v>0.8579203204710364</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8571638369059568</v>
+        <v>0.8580550266972319</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3142693271386302</v>
+        <v>0.3161294429035664</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8514234875444839</v>
+        <v>0.853202846975089</v>
       </c>
       <c r="N21" t="n">
-        <v>0.851583782071587</v>
+        <v>0.8532744315662804</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8514234875444839</v>
+        <v>0.853202846975089</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8515036272642229</v>
+        <v>0.8532386377692426</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.311550685488041</v>
+        <v>0.3139072074012595</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8570369271837461</v>
+        <v>0.8583716446685452</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8571038333106025</v>
+        <v>0.8583753515249801</v>
       </c>
       <c r="T21" t="n">
-        <v>0.857035912340024</v>
+        <v>0.8583718834817804</v>
       </c>
       <c r="U21" t="n">
-        <v>0.857069871479665</v>
+        <v>0.8583736174998774</v>
       </c>
     </row>
     <row r="22">
@@ -1858,52 +1858,52 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3296998930166604</v>
+        <v>0.3276059395036171</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8504913848854397</v>
+        <v>0.8546170546932741</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8508025170783665</v>
+        <v>0.8550667495227928</v>
       </c>
       <c r="J22" t="n">
-        <v>0.850701059541462</v>
+        <v>0.8546961275064141</v>
       </c>
       <c r="K22" t="n">
-        <v>0.850679562528766</v>
+        <v>0.8548055336740265</v>
       </c>
       <c r="L22" t="n">
-        <v>0.329038466064297</v>
+        <v>0.3279955841084867</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8505338078291815</v>
+        <v>0.8499406880189798</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8505398503525183</v>
+        <v>0.849941180443764</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8505338078291815</v>
+        <v>0.8499406880189799</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8505368290801179</v>
+        <v>0.8499409342313006</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3284615373714663</v>
+        <v>0.3276986186354074</v>
       </c>
       <c r="R22" t="n">
-        <v>0.852736170843838</v>
+        <v>0.8546640960996589</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8527553373923099</v>
+        <v>0.854667120967312</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8527367174416636</v>
+        <v>0.8546643128378857</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8527460273153438</v>
+        <v>0.8546657169002922</v>
       </c>
     </row>
     <row r="23">
@@ -1923,52 +1923,52 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3150652493704625</v>
+        <v>0.3143929445192565</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8575041574279378</v>
+        <v>0.8588726441241684</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8580107113400995</v>
+        <v>0.859357545780433</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8574577584969606</v>
+        <v>0.8590138354037099</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8576557744501101</v>
+        <v>0.8591065546795218</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3140695689579806</v>
+        <v>0.3133648126406679</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8543890865954923</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8543935748058089</v>
+        <v>0.8524704059200913</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8543890865954923</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8543913306947564</v>
+        <v>0.8524659265426769</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3127542721331941</v>
+        <v>0.3126126723614641</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8583716446685452</v>
+        <v>0.8601512679816106</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8583911088213237</v>
+        <v>0.8602094409903349</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8583721913903144</v>
+        <v>0.8601522106249206</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8583816500015913</v>
+        <v>0.8601808248557016</v>
       </c>
     </row>
     <row r="24">
@@ -1988,52 +1988,52 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.312260912307702</v>
+        <v>0.3118855571777939</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8595049196230599</v>
+        <v>0.8589361603843311</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8597370426413975</v>
+        <v>0.8593067639328975</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8594815825017444</v>
+        <v>0.8588658857975919</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8595318092523111</v>
+        <v>0.8590088791975653</v>
       </c>
       <c r="L24" t="n">
-        <v>0.312261930280043</v>
+        <v>0.3121720039106708</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8546856465005931</v>
+        <v>0.8560201660735468</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8546917605935803</v>
+        <v>0.8560397366382172</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8546856465005931</v>
+        <v>0.8560201660735469</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8546887035361522</v>
+        <v>0.8560299512440266</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3108617551743691</v>
+        <v>0.3091168686155062</v>
       </c>
       <c r="R24" t="n">
-        <v>0.860596173809877</v>
+        <v>0.8608927776953879</v>
       </c>
       <c r="S24" t="n">
-        <v>0.860597254398749</v>
+        <v>0.8608927746359378</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8605963027047038</v>
+        <v>0.8608927746359378</v>
       </c>
       <c r="U24" t="n">
-        <v>0.8605967785514634</v>
+        <v>0.8608927746359378</v>
       </c>
     </row>
     <row r="25">
@@ -2053,52 +2053,52 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.306714250944482</v>
+        <v>0.3112724415728779</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8623313932002956</v>
+        <v>0.8588697570214339</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8629905160033844</v>
+        <v>0.8591880012733745</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8621959095107692</v>
+        <v>0.8589737290219559</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8625133229814984</v>
+        <v>0.8590065152441396</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3088895981856967</v>
+        <v>0.3133980679386864</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8551304863582444</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8542254056050864</v>
+        <v>0.8551937443214099</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8551304863582443</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8540848030325711</v>
+        <v>0.8551621141699992</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3062741206373004</v>
+        <v>0.3101859652034239</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8631173068367196</v>
+        <v>0.8595580602105888</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8631883517780761</v>
+        <v>0.85961163331512</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8631162701332593</v>
+        <v>0.8595571553896486</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8631523094507874</v>
+        <v>0.8595843934892218</v>
       </c>
     </row>
     <row r="26">
@@ -2118,52 +2118,52 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3248916255358994</v>
+        <v>0.3251951809365094</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8542388442350333</v>
+        <v>0.852619179600887</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8545633857888421</v>
+        <v>0.852743401810828</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8542226745618955</v>
+        <v>0.8526512863034958</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8543174832970801</v>
+        <v>0.852629669135987</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3241409575983528</v>
+        <v>0.3242468923700582</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8523131672597865</v>
+        <v>0.8502372479240806</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8523341144733004</v>
+        <v>0.8502416835528537</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8523131672597866</v>
+        <v>0.8502372479240807</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8523236407378406</v>
+        <v>0.8502394657326821</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3236972793240147</v>
+        <v>0.3250685740013329</v>
       </c>
       <c r="R26" t="n">
-        <v>0.855998813584458</v>
+        <v>0.8533293786148598</v>
       </c>
       <c r="S26" t="n">
-        <v>0.85601815243016</v>
+        <v>0.8533552550544597</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8559993602540403</v>
+        <v>0.8533300131995989</v>
       </c>
       <c r="U26" t="n">
-        <v>0.8560087562389628</v>
+        <v>0.8533426339403659</v>
       </c>
     </row>
     <row r="27">
@@ -2183,52 +2183,52 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3120385139339224</v>
+        <v>0.3127594403732446</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8590285476718403</v>
+        <v>0.8593778871027347</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8593178200182671</v>
+        <v>0.8597463128190189</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8589680828431854</v>
+        <v>0.8592583989797422</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8590679489269922</v>
+        <v>0.859424027736527</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3121334808945063</v>
+        <v>0.3139795141471758</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8551304863582444</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8551687508284473</v>
+        <v>0.8535237827188291</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8551304863582443</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8551496181653009</v>
+        <v>0.8535115946254692</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3110832802344685</v>
+        <v>0.3114353828736853</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8604478718671215</v>
+        <v>0.860299569924366</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8605503695060288</v>
+        <v>0.8603662033646982</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8604491224254888</v>
+        <v>0.8603005785513378</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8604997429875558</v>
+        <v>0.8603333897065799</v>
       </c>
     </row>
     <row r="28">
@@ -2248,52 +2248,52 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.308954785546678</v>
+        <v>0.3101634695694966</v>
       </c>
       <c r="H28" t="n">
-        <v>0.860362389135255</v>
+        <v>0.8607752448263118</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8609037891851583</v>
+        <v>0.860981960578289</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8602893240851631</v>
+        <v>0.8606917053736806</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8605168114253355</v>
+        <v>0.8607659941874999</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3100783327346934</v>
+        <v>0.3119977282646235</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8539868669361418</v>
+        <v>0.8544210052280867</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8539655563052131</v>
+        <v>0.8544050456136875</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3097435147052159</v>
+        <v>0.309913676180161</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8619308912946759</v>
+        <v>0.8597063621533442</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8619316350359004</v>
+        <v>0.8597083071316542</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8619309982253911</v>
+        <v>0.8597065350155344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8619313166305282</v>
+        <v>0.8597074210726812</v>
       </c>
     </row>
     <row r="29">
@@ -2313,52 +2313,52 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3060987281036701</v>
+        <v>0.3065462328452749</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8616009562084257</v>
+        <v>0.8608070029563931</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8621579191502095</v>
+        <v>0.861469413772088</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8617111630652285</v>
+        <v>0.860821402420699</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8618576346296198</v>
+        <v>0.8610651748062721</v>
       </c>
       <c r="L29" t="n">
-        <v>0.308769044154337</v>
+        <v>0.3122269708549166</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8526097271648873</v>
+        <v>0.8529062870699882</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8526936015088391</v>
+        <v>0.8532169335121067</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8526097271648874</v>
+        <v>0.8529062870699882</v>
       </c>
       <c r="P29" t="n">
-        <v>0.852651662274208</v>
+        <v>0.8530615820102027</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3068817916115982</v>
+        <v>0.3096092221316319</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8638588165504968</v>
+        <v>0.8619308912946759</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8638588135562801</v>
+        <v>0.8619617948939031</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8638588135562801</v>
+        <v>0.8619302064605896</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8638588135562801</v>
+        <v>0.8619460003878346</v>
       </c>
     </row>
     <row r="30">
@@ -2381,49 +2381,49 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3218127095044663</v>
+        <v>0.3224389314440019</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8555062823355506</v>
+        <v>0.8546516999260901</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8556396692582668</v>
+        <v>0.8550476125564125</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8554065993798865</v>
+        <v>0.8549127254323561</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8554520677302275</v>
+        <v>0.8549059154024211</v>
       </c>
       <c r="L30" t="n">
-        <v>0.322203434019929</v>
+        <v>0.3227276242174271</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8512752075919335</v>
+        <v>0.8526097271648873</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8512863606344507</v>
+        <v>0.8526221320979871</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8512752075919336</v>
+        <v>0.8526097271648874</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8512807840766619</v>
+        <v>0.8526159295863165</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3218040277699244</v>
+        <v>0.3213043050108539</v>
       </c>
       <c r="R30" t="n">
         <v>0.8554056058134362</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8554167139540428</v>
+        <v>0.8554353646225674</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8554060205091716</v>
+        <v>0.8554062844307722</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8554113671981877</v>
+        <v>0.8554208242795232</v>
       </c>
     </row>
     <row r="31">
@@ -2443,52 +2443,52 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3115243766506177</v>
+        <v>0.3113230907357724</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8601400822246859</v>
+        <v>0.8600130497043607</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8604639808352583</v>
+        <v>0.8603333688723833</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8599793729840075</v>
+        <v>0.8601256071547104</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8601470978586424</v>
+        <v>0.8601526425940178</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3117953309016581</v>
+        <v>0.3126598046234168</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8537959667852907</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8537964646350936</v>
+        <v>0.8539579749872097</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8537959667852906</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8537962157101194</v>
+        <v>0.8539511108073511</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3106491206329894</v>
+        <v>0.3119529216199887</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8580750407830342</v>
+        <v>0.8585199466113006</v>
       </c>
       <c r="S31" t="n">
-        <v>0.858117816091954</v>
+        <v>0.8585751881386221</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8580758514198805</v>
+        <v>0.8585208672252655</v>
       </c>
       <c r="U31" t="n">
-        <v>0.8580968332428535</v>
+        <v>0.8585480268227136</v>
       </c>
     </row>
     <row r="32">
@@ -2511,49 +2511,49 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3075454884446281</v>
+        <v>0.3067653160113755</v>
       </c>
       <c r="H32" t="n">
-        <v>0.860997551736881</v>
+        <v>0.8615691980783444</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8612682888801544</v>
+        <v>0.8619194700806747</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8609691938845908</v>
+        <v>0.8616046357265899</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8610440874654494</v>
+        <v>0.8616855970118047</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3108136170278654</v>
+        <v>0.3116413003273026</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8527580071174378</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8539741638603824</v>
+        <v>0.8528153803458405</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8527580071174377</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8539592050370869</v>
+        <v>0.8527866927666593</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3101235151827076</v>
+        <v>0.3097204719813113</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8614859854664096</v>
+        <v>0.8592614563250779</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8614880961806783</v>
+        <v>0.8592809674680102</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8614858064722726</v>
+        <v>0.8592620030664171</v>
       </c>
       <c r="U32" t="n">
-        <v>0.861486951324954</v>
+        <v>0.859271485162576</v>
       </c>
     </row>
     <row r="33">
@@ -2573,52 +2573,52 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>0.302133724871548</v>
+        <v>0.3024637802256511</v>
       </c>
       <c r="H33" t="n">
         <v>0.863220620842572</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8636587664160065</v>
+        <v>0.8635761530018889</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8633768938844225</v>
+        <v>0.8632158942498137</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8634406398740273</v>
+        <v>0.8633179362627001</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3069685378707782</v>
+        <v>0.3103736613454507</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8555753262158956</v>
+        <v>0.8558718861209964</v>
       </c>
       <c r="N33" t="n">
-        <v>0.85571159951392</v>
+        <v>0.856103517842314</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8555753262158956</v>
+        <v>0.8558718861209964</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8556434574390462</v>
+        <v>0.8559876863116712</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3070365064176439</v>
+        <v>0.3098869029000564</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8628207029512086</v>
+        <v>0.8601512679816106</v>
       </c>
       <c r="S33" t="n">
-        <v>0.862820721927627</v>
+        <v>0.8601628873003014</v>
       </c>
       <c r="T33" t="n">
-        <v>0.862820721927627</v>
+        <v>0.8601508470299847</v>
       </c>
       <c r="U33" t="n">
-        <v>0.8628207219276269</v>
+        <v>0.8601568671230088</v>
       </c>
     </row>
     <row r="34">
@@ -2641,49 +2641,49 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3804872471047771</v>
+        <v>0.3480396374443886</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8311506836659276</v>
+        <v>0.8478237019586106</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8319451895712519</v>
+        <v>0.8482734964054208</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8311348490606058</v>
+        <v>0.847862438731528</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8314605227236118</v>
+        <v>0.8479929384871109</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3799302402950069</v>
+        <v>0.3468669871363207</v>
       </c>
       <c r="M34" t="n">
-        <v>0.8297746144721234</v>
+        <v>0.847123368920522</v>
       </c>
       <c r="N34" t="n">
-        <v>0.8302654938343155</v>
+        <v>0.8472524007450538</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8297746144721234</v>
+        <v>0.847123368920522</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8300199815758922</v>
+        <v>0.8471878799197067</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3772527828399403</v>
+        <v>0.3470275577121258</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8327154085718523</v>
+        <v>0.84680409313362</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8333394295460839</v>
+        <v>0.8471528320213603</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8327186159388237</v>
+        <v>0.8468064430652489</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8330289070773557</v>
+        <v>0.8469796021276631</v>
       </c>
     </row>
     <row r="35">
@@ -2703,52 +2703,52 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3183477997091772</v>
+        <v>0.3183778645316102</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8561732030672579</v>
+        <v>0.8573453667775314</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8567181220251388</v>
+        <v>0.8578458718043178</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8564702428219213</v>
+        <v>0.857312419781925</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8565144371661949</v>
+        <v>0.8575034000418947</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3184755202638995</v>
+        <v>0.3182593512013351</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8520166073546857</v>
+        <v>0.8527580071174378</v>
       </c>
       <c r="N35" t="n">
-        <v>0.85211372180848</v>
+        <v>0.8527692072390707</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8520166073546857</v>
+        <v>0.8527580071174377</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8520651618144185</v>
+        <v>0.8527636071414788</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3155823207646467</v>
+        <v>0.3172807070339427</v>
       </c>
       <c r="R35" t="n">
-        <v>0.8562954174699688</v>
+        <v>0.8574818330120124</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8563298606620335</v>
+        <v>0.8574818518710106</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8562946885250056</v>
+        <v>0.8574818518710106</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8563122742323548</v>
+        <v>0.8574818518710106</v>
       </c>
     </row>
     <row r="36">
@@ -2771,49 +2771,49 @@
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0.317850647739588</v>
+        <v>0.3148873456681737</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8568689948263118</v>
+        <v>0.8573800120103473</v>
       </c>
       <c r="I36" t="n">
-        <v>0.857354111018567</v>
+        <v>0.8578894177187923</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8569134304203037</v>
+        <v>0.8574421060840742</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8570566312636509</v>
+        <v>0.8575873933077726</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3207837967256789</v>
+        <v>0.3151159663732813</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8518683274021353</v>
+        <v>0.8523131672597865</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8519835153026002</v>
+        <v>0.8525115839656233</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8518683274021353</v>
+        <v>0.8523131672597866</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8519259174587626</v>
+        <v>0.8524123640663015</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3183889331669541</v>
+        <v>0.3137538310666796</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8554056058134362</v>
+        <v>0.8583716446685452</v>
       </c>
       <c r="S36" t="n">
-        <v>0.855422356652819</v>
+        <v>0.8583885396156763</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8554050967835698</v>
+        <v>0.8583711357039123</v>
       </c>
       <c r="U36" t="n">
-        <v>0.8554137266311304</v>
+        <v>0.8583798375715769</v>
       </c>
     </row>
     <row r="37">
@@ -2833,52 +2833,52 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3156784297686373</v>
+        <v>0.3125072278817937</v>
       </c>
       <c r="H37" t="n">
-        <v>0.858618579083518</v>
+        <v>0.8578246258314856</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8594948679964566</v>
+        <v>0.8587860572480878</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8586778499526007</v>
+        <v>0.8578428596783039</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8590075436621684</v>
+        <v>0.8582307039626064</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3184277660313651</v>
+        <v>0.315174883233877</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8514234875444839</v>
+        <v>0.854982206405694</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8516852785444714</v>
+        <v>0.8554628935532234</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8514234875444839</v>
+        <v>0.854982206405694</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8515543629240576</v>
+        <v>0.8552224824355972</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3155043440955443</v>
+        <v>0.3131543161346683</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8592614563250779</v>
+        <v>0.8552573038706807</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8594400453046268</v>
+        <v>0.8554683339369022</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8592598037197463</v>
+        <v>0.8552554972230169</v>
       </c>
       <c r="U37" t="n">
-        <v>0.8593499150611389</v>
+        <v>0.8553619023401057</v>
       </c>
     </row>
     <row r="38">
@@ -2898,52 +2898,52 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3292301433983898</v>
+        <v>0.3272230564480276</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8535084072431633</v>
+        <v>0.8525874214708057</v>
       </c>
       <c r="I38" t="n">
-        <v>0.853812565250524</v>
+        <v>0.853035781272086</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8536617279395904</v>
+        <v>0.8527738035137551</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8536629392013085</v>
+        <v>0.8528311115610853</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3279457659057959</v>
+        <v>0.32699876606736</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8517200474495848</v>
+        <v>0.8499406880189798</v>
       </c>
       <c r="N38" t="n">
-        <v>0.851824136845013</v>
+        <v>0.8499467203180809</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8517200474495847</v>
+        <v>0.8499406880189798</v>
       </c>
       <c r="P38" t="n">
-        <v>0.851772088967281</v>
+        <v>0.8499437041578272</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3277899802111587</v>
+        <v>0.3267033476055758</v>
       </c>
       <c r="R38" t="n">
-        <v>0.8567403232982352</v>
+        <v>0.8552573038706807</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8569024106883532</v>
+        <v>0.8552574071809562</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8567419036770614</v>
+        <v>0.8552573446742204</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8568221496658321</v>
+        <v>0.8552573759275871</v>
       </c>
     </row>
     <row r="39">
@@ -2963,52 +2963,52 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3143733772670006</v>
+        <v>0.3146075739224204</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8583327559127863</v>
+        <v>0.8574406411677753</v>
       </c>
       <c r="I39" t="n">
-        <v>0.858890921097163</v>
+        <v>0.8579164436711939</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8584981976416849</v>
+        <v>0.8575066638375921</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8586197847796061</v>
+        <v>0.8576336426212537</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3150616993985328</v>
+        <v>0.3143903889023258</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8515717674970344</v>
+        <v>0.8518683274021353</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8516400829508695</v>
+        <v>0.8519310042900652</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8515717674970344</v>
+        <v>0.8518683274021353</v>
       </c>
       <c r="P39" t="n">
-        <v>0.851605923853893</v>
+        <v>0.8518996646932673</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3129511599161615</v>
+        <v>0.3127900736419306</v>
       </c>
       <c r="R39" t="n">
-        <v>0.858964852439567</v>
+        <v>0.8565920213554797</v>
       </c>
       <c r="S39" t="n">
-        <v>0.858999559207418</v>
+        <v>0.8566186750086353</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8589641235533138</v>
+        <v>0.8565913803909067</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8589818410149085</v>
+        <v>0.856605027482344</v>
       </c>
     </row>
     <row r="40">
@@ -3031,49 +3031,49 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3096495353574373</v>
+        <v>0.3121469624712893</v>
       </c>
       <c r="H40" t="n">
-        <v>0.859949533444198</v>
+        <v>0.8583298688100517</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8605197866166925</v>
+        <v>0.8590039945095539</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8599332544213771</v>
+        <v>0.8584873017556687</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8601516512657991</v>
+        <v>0.8586650114673754</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3119193757563807</v>
+        <v>0.3136681113368392</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8544042173222314</v>
+        <v>0.8527297547425635</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8542483435745775</v>
+        <v>0.8525955798686938</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3096672123483855</v>
+        <v>0.3110354745851742</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8610410796381432</v>
+        <v>0.860596173809877</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8610897745201862</v>
+        <v>0.8606213158311484</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8610402188367532</v>
+        <v>0.8605955549268356</v>
       </c>
       <c r="U40" t="n">
-        <v>0.8610649959654673</v>
+        <v>0.8606084351862143</v>
       </c>
     </row>
     <row r="41">
@@ -3093,52 +3093,52 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3075829317803139</v>
+        <v>0.3078357585136007</v>
       </c>
       <c r="H41" t="n">
-        <v>0.860362389135255</v>
+        <v>0.8604259053954175</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8611657921258292</v>
+        <v>0.8613796798021396</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8604711000904873</v>
+        <v>0.8603174633606441</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8607384255170831</v>
+        <v>0.8607699368950518</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3141785132962232</v>
+        <v>0.3132581171059408</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8509786476868327</v>
+        <v>0.8527580071174378</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8519265268335949</v>
+        <v>0.8535049437445087</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8509786476868327</v>
+        <v>0.8527580071174378</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8514523234537228</v>
+        <v>0.8531313119408369</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3112257870385549</v>
+        <v>0.3098845610151185</v>
       </c>
       <c r="R41" t="n">
-        <v>0.8614859854664096</v>
+        <v>0.8591131543823224</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8619304904355425</v>
+        <v>0.859483066848433</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8614833871909346</v>
+        <v>0.8591107759893277</v>
       </c>
       <c r="U41" t="n">
-        <v>0.8617068808175029</v>
+        <v>0.8592968810950761</v>
       </c>
     </row>
     <row r="42">
@@ -3158,52 +3158,52 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3211992806833526</v>
+        <v>0.3214902745350627</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8567737204360679</v>
+        <v>0.8558238636363635</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8569218481205383</v>
+        <v>0.8561041925886356</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8567121418159513</v>
+        <v>0.8559945625369746</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8567459647400849</v>
+        <v>0.855974571959724</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3216931058755236</v>
+        <v>0.3219435875752936</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8503855278766311</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="N42" t="n">
-        <v>0.850389256607345</v>
+        <v>0.8524840463496913</v>
       </c>
       <c r="O42" t="n">
-        <v>0.850385527876631</v>
+        <v>0.8524614472123369</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8503873922379006</v>
+        <v>0.8524727466312378</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3209382926406075</v>
+        <v>0.3202869741685435</v>
       </c>
       <c r="R42" t="n">
         <v>0.8565920213554797</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8566346228294304</v>
+        <v>0.8566181309496578</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8565928319597094</v>
+        <v>0.8565926560119757</v>
       </c>
       <c r="U42" t="n">
-        <v>0.8566137268848661</v>
+        <v>0.8566053932914144</v>
       </c>
     </row>
     <row r="43">
@@ -3226,49 +3226,49 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3126047577436726</v>
+        <v>0.3104729370796494</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8603941472653363</v>
+        <v>0.8596319521433851</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8609492377200231</v>
+        <v>0.860006748567252</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8604425468953592</v>
+        <v>0.8596095749172462</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8606144999670767</v>
+        <v>0.8597349604353945</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3128050328773416</v>
+        <v>0.3121454438498071</v>
       </c>
       <c r="M43" t="n">
-        <v>0.853202846975089</v>
+        <v>0.8542408066429419</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8532868624028825</v>
+        <v>0.8542670096766423</v>
       </c>
       <c r="O43" t="n">
-        <v>0.853202846975089</v>
+        <v>0.8542408066429419</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8532448526208244</v>
+        <v>0.8542539079588568</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3127628986561785</v>
+        <v>0.3100246577896384</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8595580602105888</v>
+        <v>0.8607444757526324</v>
       </c>
       <c r="S43" t="n">
-        <v>0.859561990625396</v>
+        <v>0.8607453148073956</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8595578151936498</v>
+        <v>0.860744362722587</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8595599029044522</v>
+        <v>0.8607448387647281</v>
       </c>
     </row>
     <row r="44">
@@ -3288,52 +3288,52 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3083886444441077</v>
+        <v>0.3091549969967076</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8596001940133038</v>
+        <v>0.8598225009238728</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8600156314725393</v>
+        <v>0.8604159808603431</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8596920209499549</v>
+        <v>0.8597299862764883</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8597749887614525</v>
+        <v>0.8599950012122783</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3119346163080694</v>
+        <v>0.3129981285713107</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8548339264531435</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8550287953961861</v>
+        <v>0.8541485994634024</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8548339264531435</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8549313498202924</v>
+        <v>0.8540464108764512</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3099437668152951</v>
+        <v>0.3114070327285686</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8610410796381432</v>
+        <v>0.8600029660388551</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8611002347533506</v>
+        <v>0.8600490694230714</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8610401308628863</v>
+        <v>0.8600021272081001</v>
       </c>
       <c r="U44" t="n">
-        <v>0.861070181759285</v>
+        <v>0.8600255976750316</v>
       </c>
     </row>
     <row r="45">
@@ -3356,49 +3356,49 @@
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3034438576438649</v>
+        <v>0.3031167430460727</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8618867793791574</v>
+        <v>0.8629347976718403</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8626541834274674</v>
+        <v>0.8637353590492909</v>
       </c>
       <c r="J45" t="n">
-        <v>0.861960311689057</v>
+        <v>0.8632006696170947</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8622269992531341</v>
+        <v>0.8633890939235707</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3101436860700719</v>
+        <v>0.3116167925974784</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8569098457888493</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8573700109275104</v>
+        <v>0.8537514112479498</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8569098457888493</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="P45" t="n">
-        <v>0.857139866596982</v>
+        <v>0.8536253904651033</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3094683468869797</v>
+        <v>0.3083239978793101</v>
       </c>
       <c r="R45" t="n">
-        <v>0.8613376835236541</v>
+        <v>0.8631173068367196</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8614208807183159</v>
+        <v>0.8631212786622187</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8613365588071871</v>
+        <v>0.8631170618980608</v>
       </c>
       <c r="U45" t="n">
-        <v>0.8613787176991455</v>
+        <v>0.8631191702749894</v>
       </c>
     </row>
     <row r="46">
@@ -3418,52 +3418,52 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3194785071456117</v>
+        <v>0.3195506574844123</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8566784460458241</v>
+        <v>0.8563002355875831</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8569634778806811</v>
+        <v>0.8564983987608512</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8566832714201812</v>
+        <v>0.85627525947753</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8567470058337243</v>
+        <v>0.8563102551641104</v>
       </c>
       <c r="L46" t="n">
-        <v>0.3198933095793658</v>
+        <v>0.3194026865566513</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8537959667852907</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8539579749872097</v>
+        <v>0.8538278319975794</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8537959667852906</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8539511108073511</v>
+        <v>0.8538118990941237</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3195625090132158</v>
+        <v>0.3182407156792538</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8557022096989471</v>
+        <v>0.8555539077561916</v>
       </c>
       <c r="S46" t="n">
-        <v>0.855731992783441</v>
+        <v>0.8555987247842306</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8557028883228064</v>
+        <v>0.8555547403310562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.8557174403056502</v>
+        <v>0.8555767319923429</v>
       </c>
     </row>
     <row r="47">
@@ -3483,52 +3483,52 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3083396170805206</v>
+        <v>0.308568376969633</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8606164541759054</v>
+        <v>0.8607117285661493</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8608656385278373</v>
+        <v>0.8610853955536381</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8605417376174338</v>
+        <v>0.8606461206287064</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8606284243052474</v>
+        <v>0.860788173801602</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3110196953354091</v>
+        <v>0.3123301549299648</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8555753262158956</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8556114803925121</v>
+        <v>0.8539704278351381</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8555753262158956</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8555934029222688</v>
+        <v>0.853957337085821</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3091422641464808</v>
+        <v>0.3099561753480867</v>
       </c>
       <c r="R47" t="n">
-        <v>0.8583716446685452</v>
+        <v>0.8604478718671215</v>
       </c>
       <c r="S47" t="n">
-        <v>0.858373119661616</v>
+        <v>0.8604503498742846</v>
       </c>
       <c r="T47" t="n">
-        <v>0.8583717955079136</v>
+        <v>0.8604480667390868</v>
       </c>
       <c r="U47" t="n">
-        <v>0.8583724575842541</v>
+        <v>0.8604492083051712</v>
       </c>
     </row>
     <row r="48">
@@ -3548,52 +3548,52 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3044822933563192</v>
+        <v>0.3030254862521721</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8624584257206208</v>
+        <v>0.8620773281596452</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8630797538922033</v>
+        <v>0.8625538332580887</v>
       </c>
       <c r="J48" t="n">
-        <v>0.862421542801402</v>
+        <v>0.8620976460916713</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8626718894442422</v>
+        <v>0.8622502942450555</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3112438730099055</v>
+        <v>0.309960454648209</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8521648873072361</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8524937773855557</v>
+        <v>0.854641725202433</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8521648873072361</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8523293006190226</v>
+        <v>0.8545153872257284</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.309256423700676</v>
+        <v>0.308707490932674</v>
       </c>
       <c r="R48" t="n">
-        <v>0.8608927776953879</v>
+        <v>0.8607444757526324</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8609791525287709</v>
+        <v>0.8607645524575058</v>
       </c>
       <c r="T48" t="n">
-        <v>0.8608916309756689</v>
+        <v>0.860743922853253</v>
       </c>
       <c r="U48" t="n">
-        <v>0.8609353895278885</v>
+        <v>0.8607542375317726</v>
       </c>
     </row>
     <row r="49">
@@ -3616,49 +3616,49 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2982142882107601</v>
+        <v>0.2978869770465922</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8658247875092387</v>
+        <v>0.8652531411677753</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8666797609950129</v>
+        <v>0.8663403553050083</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8657019439608714</v>
+        <v>0.8652018085404006</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8661090166191858</v>
+        <v>0.8656866558522918</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3105080801561345</v>
+        <v>0.3148793720110721</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8537959667852907</v>
+        <v>0.8551304863582444</v>
       </c>
       <c r="N49" t="n">
-        <v>0.8542445991470224</v>
+        <v>0.8558824465187467</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8537959667852906</v>
+        <v>0.8551304863582444</v>
       </c>
       <c r="P49" t="n">
-        <v>0.854020224047475</v>
+        <v>0.8555063012018477</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3087191658022689</v>
+        <v>0.3107883883568927</v>
       </c>
       <c r="R49" t="n">
-        <v>0.8634139107222305</v>
+        <v>0.861634287409165</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8634911754628115</v>
+        <v>0.8618873383418719</v>
       </c>
       <c r="T49" t="n">
-        <v>0.8634128300383601</v>
+        <v>0.8616323269474864</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8634520009734153</v>
+        <v>0.8617598137789788</v>
       </c>
     </row>
     <row r="50">
@@ -3678,52 +3678,52 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0.393347242973886</v>
+        <v>0.5588154444570401</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8325797995195862</v>
+        <v>0.7979287924981522</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8335695413214776</v>
+        <v>0.8029614462018773</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8325548493077422</v>
+        <v>0.798309467871417</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8329850493878866</v>
+        <v>0.8004956440928935</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3932381271921206</v>
+        <v>0.5360584739141772</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8317022538552787</v>
+        <v>0.8005634638196916</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8321587010345177</v>
+        <v>0.8047023721161009</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8317022538552787</v>
+        <v>0.8005634638196916</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8319304148362929</v>
+        <v>0.8026275822280137</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3900746836696812</v>
+        <v>0.5354715582698053</v>
       </c>
       <c r="R50" t="n">
-        <v>0.8356814474269613</v>
+        <v>0.8032033219635177</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8364004685954971</v>
+        <v>0.8066786997185565</v>
       </c>
       <c r="T50" t="n">
-        <v>0.8356848747938332</v>
+        <v>0.803211213289825</v>
       </c>
       <c r="U50" t="n">
-        <v>0.8360425185701579</v>
+        <v>0.8049412222544025</v>
       </c>
     </row>
     <row r="51">
@@ -3743,52 +3743,52 @@
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3186831025971409</v>
+        <v>0.3181918541349015</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8574752864005912</v>
+        <v>0.8553157335550627</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8580129189056034</v>
+        <v>0.8557707955593431</v>
       </c>
       <c r="J51" t="n">
-        <v>0.857416147109158</v>
+        <v>0.8553052455850053</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8576352816315089</v>
+        <v>0.855457065917547</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3168542564523209</v>
+        <v>0.3194305248846864</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8484578884934757</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8502442469180209</v>
+        <v>0.8486953736103582</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8500889679715302</v>
+        <v>0.8484578884934757</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8501666003545326</v>
+        <v>0.8485766144360987</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3150128492317232</v>
+        <v>0.3167984998064832</v>
       </c>
       <c r="R51" t="n">
-        <v>0.8600029660388551</v>
+        <v>0.8580750407830342</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8600647142920494</v>
+        <v>0.8581283891568099</v>
       </c>
       <c r="T51" t="n">
-        <v>0.8600019952472999</v>
+        <v>0.8580741359294773</v>
       </c>
       <c r="U51" t="n">
-        <v>0.8600333536262079</v>
+        <v>0.858101261685607</v>
       </c>
     </row>
     <row r="52">
@@ -3811,49 +3811,49 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3179200613948527</v>
+        <v>0.3136777350222829</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8582981106799704</v>
+        <v>0.8578881420916481</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8588091140400042</v>
+        <v>0.85854865946629</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8585233389754421</v>
+        <v>0.8579333707627871</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8585891317062904</v>
+        <v>0.8581579842570829</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3181558952520223</v>
+        <v>0.3155200400850827</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8509786476868327</v>
+        <v>0.8512752075919335</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8511523649555612</v>
+        <v>0.851925954584748</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8509786476868327</v>
+        <v>0.8512752075919336</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8510654974565183</v>
+        <v>0.8516004567719483</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3185192870285474</v>
+        <v>0.3132063290010422</v>
       </c>
       <c r="R52" t="n">
-        <v>0.8565920213554797</v>
+        <v>0.8571852291265015</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8566504357191125</v>
+        <v>0.8576318898393795</v>
       </c>
       <c r="T52" t="n">
-        <v>0.8565910724823727</v>
+        <v>0.8571826087629713</v>
       </c>
       <c r="U52" t="n">
-        <v>0.8566207530722846</v>
+        <v>0.8574071904453966</v>
       </c>
     </row>
     <row r="53">
@@ -3876,49 +3876,49 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3165872958720238</v>
+        <v>0.3118602535549196</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8566784460458241</v>
+        <v>0.8586156919807834</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8577875285493406</v>
+        <v>0.8595058656203625</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8569520311567455</v>
+        <v>0.8586052962315393</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8572819424978326</v>
+        <v>0.8589688049842966</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3215905803461934</v>
+        <v>0.3135332529170548</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8483096085409253</v>
+        <v>0.8526097271648873</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8500682340718146</v>
+        <v>0.8532361487266327</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8483096085409253</v>
+        <v>0.8526097271648874</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8491880108011572</v>
+        <v>0.8529228229283429</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.3171460387213336</v>
+        <v>0.3123739702037627</v>
       </c>
       <c r="R53" t="n">
-        <v>0.8545157941569035</v>
+        <v>0.860299569924366</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8554532937105437</v>
+        <v>0.8605349869228744</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8545119860874608</v>
+        <v>0.8602976754137323</v>
       </c>
       <c r="U53" t="n">
-        <v>0.8549823808118583</v>
+        <v>0.860416314805076</v>
       </c>
     </row>
     <row r="54">
@@ -3938,52 +3938,52 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3280016163543403</v>
+        <v>0.3310385332729982</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8554110079453067</v>
+        <v>0.8525874214708057</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8555693753051397</v>
+        <v>0.8531833301949979</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8552892928332911</v>
+        <v>0.8527185952423754</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8553591324554817</v>
+        <v>0.8528730561642257</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3281622741252538</v>
+        <v>0.3283088808035882</v>
       </c>
       <c r="M54" t="n">
-        <v>0.8494958481613286</v>
+        <v>0.8517200474495848</v>
       </c>
       <c r="N54" t="n">
-        <v>0.849558102449087</v>
+        <v>0.8517443005910499</v>
       </c>
       <c r="O54" t="n">
-        <v>0.8494958481613286</v>
+        <v>0.8517200474495847</v>
       </c>
       <c r="P54" t="n">
-        <v>0.8495269741646918</v>
+        <v>0.8517321738476648</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3287323034136752</v>
+        <v>0.3309274985326293</v>
       </c>
       <c r="R54" t="n">
-        <v>0.8564437194127243</v>
+        <v>0.8536259825003708</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8566643251256157</v>
+        <v>0.8536422274355902</v>
       </c>
       <c r="T54" t="n">
-        <v>0.8564455637066275</v>
+        <v>0.8536264851308329</v>
       </c>
       <c r="U54" t="n">
-        <v>0.8565549304483784</v>
+        <v>0.8536343562106334</v>
       </c>
     </row>
     <row r="55">
@@ -4006,49 +4006,49 @@
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3143721396450997</v>
+        <v>0.3142888031439408</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8577899805986696</v>
+        <v>0.8588697570214339</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8582605464347024</v>
+        <v>0.8593952782172363</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8579826078568001</v>
+        <v>0.8588286866513936</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8580447221733202</v>
+        <v>0.8590315139611435</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3140167574020299</v>
+        <v>0.3142185617396396</v>
       </c>
       <c r="M55" t="n">
-        <v>0.8534994068801898</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="N55" t="n">
-        <v>0.8537403279519549</v>
+        <v>0.8541194318330904</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8534994068801898</v>
+        <v>0.8539442467378411</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8536198504170061</v>
+        <v>0.8540318303016621</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.312296395767566</v>
+        <v>0.3129150832802025</v>
       </c>
       <c r="R55" t="n">
-        <v>0.8580750407830342</v>
+        <v>0.8607444757526324</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8581708778264425</v>
+        <v>0.8607714473389476</v>
       </c>
       <c r="T55" t="n">
-        <v>0.8580738280209435</v>
+        <v>0.8607438348793861</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8581223501797182</v>
+        <v>0.8607576408877201</v>
       </c>
     </row>
     <row r="56">
@@ -4068,52 +4068,52 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3128149598996064</v>
+        <v>0.3107024043524795</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8573453667775314</v>
+        <v>0.8594414033628972</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8580091945082607</v>
+        <v>0.8603999300603994</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8574338017559684</v>
+        <v>0.8596478734659684</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8576375369369907</v>
+        <v>0.8599405508958228</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3160770289379901</v>
+        <v>0.3135438129739969</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8527580071174378</v>
+        <v>0.8537959667852907</v>
       </c>
       <c r="N56" t="n">
-        <v>0.8530623384380889</v>
+        <v>0.8542596979437277</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8527580071174377</v>
+        <v>0.8537959667852906</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8529101456302525</v>
+        <v>0.8540277694138126</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.3109134943804682</v>
+        <v>0.3101642979372277</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8583716446685452</v>
+        <v>0.8598546640960997</v>
       </c>
       <c r="S56" t="n">
-        <v>0.8584819850834322</v>
+        <v>0.8601661672439261</v>
       </c>
       <c r="T56" t="n">
-        <v>0.8583703439391108</v>
+        <v>0.8598524836606137</v>
       </c>
       <c r="U56" t="n">
-        <v>0.8584261608814471</v>
+        <v>0.8600092968486875</v>
       </c>
     </row>
     <row r="57">
@@ -4133,52 +4133,52 @@
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3068301261158936</v>
+        <v>0.3067659013245542</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8616644724685882</v>
+        <v>0.8610293098669622</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8627082813793201</v>
+        <v>0.861806606753268</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8615933585722507</v>
+        <v>0.8610701233809951</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8620600899595473</v>
+        <v>0.8613561678007717</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3167521671784977</v>
+        <v>0.3129289025407503</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8559800268173705</v>
+        <v>0.8550547058137286</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8543890865954923</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8549609249109179</v>
+        <v>0.8547217666159848</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3137753697857293</v>
+        <v>0.3104922688524662</v>
       </c>
       <c r="R57" t="n">
-        <v>0.8608927776953879</v>
+        <v>0.860596173809877</v>
       </c>
       <c r="S57" t="n">
-        <v>0.8619727023061559</v>
+        <v>0.860842860136031</v>
       </c>
       <c r="T57" t="n">
-        <v>0.8608887278380634</v>
+        <v>0.8605942353188332</v>
       </c>
       <c r="U57" t="n">
-        <v>0.8614303740694536</v>
+        <v>0.86071852977316</v>
       </c>
     </row>
     <row r="58">
@@ -4198,52 +4198,52 @@
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3223850278569561</v>
+        <v>0.3214373533595916</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8555062823355506</v>
+        <v>0.8558556217664449</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8558558566558481</v>
+        <v>0.8560220213461857</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8555454913210129</v>
+        <v>0.8559742943503514</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8556268146502787</v>
+        <v>0.8559303990432803</v>
       </c>
       <c r="L58" t="n">
-        <v>0.3211853578043583</v>
+        <v>0.3221538371642917</v>
       </c>
       <c r="M58" t="n">
-        <v>0.8536476868327402</v>
+        <v>0.8529062870699882</v>
       </c>
       <c r="N58" t="n">
-        <v>0.8537350754228584</v>
+        <v>0.8529241654740345</v>
       </c>
       <c r="O58" t="n">
-        <v>0.8536476868327403</v>
+        <v>0.8529062870699882</v>
       </c>
       <c r="P58" t="n">
-        <v>0.853691378891404</v>
+        <v>0.8529152261783216</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.3212730569191883</v>
+        <v>0.3216168121272217</v>
       </c>
       <c r="R58" t="n">
-        <v>0.8551090019279253</v>
+        <v>0.8567403232982352</v>
       </c>
       <c r="S58" t="n">
-        <v>0.8551718552134301</v>
+        <v>0.8567852871197541</v>
       </c>
       <c r="T58" t="n">
-        <v>0.8551099884472718</v>
+        <v>0.8567411558991932</v>
       </c>
       <c r="U58" t="n">
-        <v>0.8551409207113843</v>
+        <v>0.8567632209411823</v>
       </c>
     </row>
     <row r="59">
@@ -4263,52 +4263,52 @@
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3107546132196838</v>
+        <v>0.310706792818119</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8596954684035476</v>
+        <v>0.8596001940133038</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8603150012658779</v>
+        <v>0.8602165070201938</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8597473737783529</v>
+        <v>0.8596265017935434</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8599503098819224</v>
+        <v>0.8598383312888266</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3134273393654176</v>
+        <v>0.3153051397515475</v>
       </c>
       <c r="M59" t="n">
-        <v>0.8527580071174378</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8529517359998022</v>
+        <v>0.8521771724210749</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8527580071174377</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="P59" t="n">
-        <v>0.8528548605570765</v>
+        <v>0.8520968823238518</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3118175024517962</v>
+        <v>0.3112918160067331</v>
       </c>
       <c r="R59" t="n">
-        <v>0.858964852439567</v>
+        <v>0.8622274951801868</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8589881311840943</v>
+        <v>0.862250991003546</v>
       </c>
       <c r="T59" t="n">
-        <v>0.858964255514114</v>
+        <v>0.8622268983264907</v>
       </c>
       <c r="U59" t="n">
-        <v>0.8589761931831952</v>
+        <v>0.862238944496719</v>
       </c>
     </row>
     <row r="60">
@@ -4328,52 +4328,52 @@
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3085562440277023</v>
+        <v>0.3082254693107859</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8605211797856614</v>
+        <v>0.8602353566149298</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8611397026569942</v>
+        <v>0.8607894962499538</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8606795230305615</v>
+        <v>0.8604903098221035</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8608277046577801</v>
+        <v>0.8605626659228717</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3131990784095785</v>
+        <v>0.3147517490036004</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="N60" t="n">
-        <v>0.8544470332928051</v>
+        <v>0.8528309770507063</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8539442467378411</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8541955660292514</v>
+        <v>0.852423597699091</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.3120037095863641</v>
+        <v>0.3134238377247436</v>
       </c>
       <c r="R60" t="n">
-        <v>0.8591131543823224</v>
+        <v>0.858964852439567</v>
       </c>
       <c r="S60" t="n">
-        <v>0.8593162274442782</v>
+        <v>0.859250994814883</v>
       </c>
       <c r="T60" t="n">
-        <v>0.8591113918063955</v>
+        <v>0.8589627599583778</v>
       </c>
       <c r="U60" t="n">
-        <v>0.8592137974171885</v>
+        <v>0.8591068532105545</v>
       </c>
     </row>
     <row r="61">
@@ -4396,49 +4396,49 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3030605958796798</v>
+        <v>0.3041547703763012</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8622996350702143</v>
+        <v>0.8618550212490761</v>
       </c>
       <c r="I61" t="n">
-        <v>0.863368625162831</v>
+        <v>0.8628916653838967</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8624610098123943</v>
+        <v>0.8622504937722222</v>
       </c>
       <c r="K61" t="n">
-        <v>0.862834357725677</v>
+        <v>0.8624908322973656</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3127879731218136</v>
+        <v>0.3172329485860844</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8572064056939501</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8578320714068794</v>
+        <v>0.8532099631767402</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8572064056939501</v>
+        <v>0.8520166073546857</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8575191244253997</v>
+        <v>0.8526128676971204</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3102961978965262</v>
+        <v>0.3144844606517015</v>
       </c>
       <c r="R61" t="n">
-        <v>0.8607444757526324</v>
+        <v>0.8592614563250779</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8609143862533567</v>
+        <v>0.8597414409747915</v>
       </c>
       <c r="T61" t="n">
-        <v>0.8607428671668509</v>
+        <v>0.8592587480333442</v>
       </c>
       <c r="U61" t="n">
-        <v>0.86082861816636</v>
+        <v>0.8595000267343035</v>
       </c>
     </row>
     <row r="62">
@@ -4458,52 +4458,52 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3183237734058116</v>
+        <v>0.3178853093959136</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8574723992978566</v>
+        <v>0.857631189948263</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8576605149865629</v>
+        <v>0.8580067485761235</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8573571790357791</v>
+        <v>0.8575700093782808</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8574365483895074</v>
+        <v>0.8577141262056384</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3182739341128925</v>
+        <v>0.3176859419967786</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8540925266903915</v>
+        <v>0.8523131672597865</v>
       </c>
       <c r="N62" t="n">
-        <v>0.8541135796979131</v>
+        <v>0.8523255617598055</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8540925266903914</v>
+        <v>0.8523131672597866</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8541030530644169</v>
+        <v>0.8523193644647357</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3173840987146779</v>
+        <v>0.316883400636049</v>
       </c>
       <c r="R62" t="n">
-        <v>0.8554056058134362</v>
+        <v>0.8567403232982352</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8554577887991699</v>
+        <v>0.8567901654945179</v>
       </c>
       <c r="T62" t="n">
-        <v>0.8554065043654393</v>
+        <v>0.8567411998861266</v>
       </c>
       <c r="U62" t="n">
-        <v>0.85543214581366</v>
+        <v>0.8567656819907055</v>
       </c>
     </row>
     <row r="63">
@@ -4523,52 +4523,52 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3075582552570213</v>
+        <v>0.3045603630260235</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8604259053954175</v>
+        <v>0.8617915049889135</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8607398746329153</v>
+        <v>0.8624386117832323</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8604708454671767</v>
+        <v>0.8618164160775906</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8605299554042306</v>
+        <v>0.8620469036964237</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3144885843832961</v>
+        <v>0.3112172960480742</v>
       </c>
       <c r="M63" t="n">
-        <v>0.8511269276393831</v>
+        <v>0.8546856465005931</v>
       </c>
       <c r="N63" t="n">
-        <v>0.8514360077969195</v>
+        <v>0.8550634937460624</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8511269276393831</v>
+        <v>0.8546856465005932</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8512814396632284</v>
+        <v>0.8548745283720154</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.3110322975805468</v>
+        <v>0.3098444064436691</v>
       </c>
       <c r="R63" t="n">
-        <v>0.858964852439567</v>
+        <v>0.8585199466113006</v>
       </c>
       <c r="S63" t="n">
-        <v>0.859018335651796</v>
+        <v>0.8585871348939933</v>
       </c>
       <c r="T63" t="n">
-        <v>0.85896394760558</v>
+        <v>0.8585189318001951</v>
       </c>
       <c r="U63" t="n">
-        <v>0.8589911407677772</v>
+        <v>0.8585530319925879</v>
       </c>
     </row>
     <row r="64">
@@ -4588,52 +4588,52 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3008039388675383</v>
+        <v>0.3005866370221736</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8627760070214339</v>
+        <v>0.8625537001108647</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8635686624385895</v>
+        <v>0.8634177300003755</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8627313309086273</v>
+        <v>0.8627567006106146</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8630676946853801</v>
+        <v>0.8630069610311842</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3144447141868297</v>
+        <v>0.3151919609870901</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8536476868327402</v>
+        <v>0.8548339264531435</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8543772679502687</v>
+        <v>0.8555281052482147</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8536476868327403</v>
+        <v>0.8548339264531435</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8540123215715894</v>
+        <v>0.855180874978691</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3124301752872268</v>
+        <v>0.3110555616263598</v>
       </c>
       <c r="R64" t="n">
-        <v>0.8585199466113006</v>
+        <v>0.8579267388402788</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8586752275691288</v>
+        <v>0.8581393682473715</v>
       </c>
       <c r="T64" t="n">
-        <v>0.8585184039569942</v>
+        <v>0.8579249322513252</v>
       </c>
       <c r="U64" t="n">
-        <v>0.8585968086020621</v>
+        <v>0.8580321368515996</v>
       </c>
     </row>
     <row r="65">
@@ -4653,52 +4653,52 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2970026983877442</v>
+        <v>0.2977574015490542</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8647132529563931</v>
+        <v>0.8649673179970436</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8657521645016709</v>
+        <v>0.8659629181262515</v>
       </c>
       <c r="J65" t="n">
-        <v>0.864922478942693</v>
+        <v>0.8651061554589131</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8652576151885308</v>
+        <v>0.8654562630508893</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3206010915027729</v>
+        <v>0.3208019128174101</v>
       </c>
       <c r="M65" t="n">
-        <v>0.8518683274021353</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8531993500792538</v>
+        <v>0.8541633550878363</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8518683274021353</v>
+        <v>0.8534994068801898</v>
       </c>
       <c r="P65" t="n">
-        <v>0.8525333192242582</v>
+        <v>0.8538312519107462</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.3153560459440221</v>
+        <v>0.3185047851062011</v>
       </c>
       <c r="R65" t="n">
-        <v>0.860596173809877</v>
+        <v>0.8580750407830342</v>
       </c>
       <c r="S65" t="n">
-        <v>0.861039578189672</v>
+        <v>0.8581852887920172</v>
       </c>
       <c r="T65" t="n">
-        <v>0.860593575514832</v>
+        <v>0.8580737400470766</v>
       </c>
       <c r="U65" t="n">
-        <v>0.8608165190819932</v>
+        <v>0.8581295107944756</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 11:57:43</t>
+          <t>2025-11-15 20:57:56</t>
         </is>
       </c>
     </row>
